--- a/DZ_3.xlsx
+++ b/DZ_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mytraining\Финансовая математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58389BA5-9FEE-42D9-B2EB-79878390E5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C780F-BE31-4C59-AAA7-10A7F551E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C665908-1130-484B-9B86-B0BB4AD76321}"/>
+    <workbookView xWindow="2235" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{1C665908-1130-484B-9B86-B0BB4AD76321}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -166,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -262,23 +270,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,34 +311,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901EA71E-A66B-409B-9D0B-18C89CEA2F9F}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,767 +648,767 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4">
-        <f>15%*1/36+10%*2/36+5%*3/36+0%*23/36-5%*6/36-10%*30/30</f>
-        <v>-9.4444444444444456E-2</v>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23">
+        <f>15%*1/36+10%*2/36+5%*3/36+0%*23/36-5%*6/36-10%*1/36</f>
+        <v>2.777777777777777E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="9">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="3">
         <v>4</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="3">
         <v>5</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="3">
         <v>6</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4">
         <v>0.05</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="6">
         <v>-0.02</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="4">
         <v>0.12</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="4">
         <v>-0.04</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="4">
         <v>0.11</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="4">
         <v>0.09</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="4">
         <f>1+H19</f>
         <v>1.05</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="6">
         <f t="shared" ref="I20:N20" si="0">1+I19</f>
         <v>0.98</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="4">
         <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="4">
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="4">
         <f>GEOMEAN(H20:N20)-1</f>
         <v>5.2667285863485791E-2</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="3">
         <v>3</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="3">
         <v>4</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="9">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="3">
         <v>-100</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="3">
         <f>-I25*(1+$H$21)^J24</f>
         <v>105.26672858634858</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="3">
         <f>J25*(1+$H$21)^K24</f>
         <v>116.64694773733692</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="3">
         <f>K25*(1+$H$21)^L24</f>
         <v>136.0651041643701</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="3">
         <f>L25*(1+$H$21)^M24</f>
         <v>167.07492087602932</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="3">
         <f>M25*(1+$H$21)^N24</f>
         <v>215.95680627239457</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4">
+      <c r="E32" s="18"/>
+      <c r="F32" s="1">
         <f>H21/F33</f>
         <v>0.84386686371526343</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="14"/>
       <c r="F33">
         <f>_xlfn.STDEV.S(H19:N19)</f>
         <v>6.2411842588070532E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="16">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="7">
         <f>30%*1%+50%*3%+20%*10%</f>
         <v>3.8000000000000006E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="8">
         <f>30%*1%/H43</f>
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20">
+      <c r="E57" s="17"/>
+      <c r="F57" s="9">
         <v>1</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="9">
         <v>2</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="9">
         <v>3</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="9">
         <v>4</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="9">
         <v>5</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="9">
         <v>6</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="9">
         <v>7</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="9">
         <v>8</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="9">
         <v>9</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="9">
         <v>10</v>
       </c>
-      <c r="P57" s="20">
+      <c r="P57" s="9">
         <v>11</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="Q57" s="9">
         <v>12</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="9">
+      <c r="E58" s="16"/>
+      <c r="F58" s="3">
         <v>12.1</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="3">
         <v>15.2</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="3">
         <v>15.3</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="3">
         <v>15.7</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="3">
         <v>15.2</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="3">
         <v>16.5</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="3">
         <v>17.2</v>
       </c>
-      <c r="O58" s="9">
+      <c r="O58" s="3">
         <v>17</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58" s="3">
         <v>16.8</v>
       </c>
-      <c r="Q58" s="9">
+      <c r="Q58" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="R58" s="22">
-        <f>F61*R59+G61</f>
-        <v>16.932411572091688</v>
+      <c r="R58" s="11">
+        <f>F61*Q59+G61</f>
+        <v>16.733602605159945</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="9">
+      <c r="E59" s="16"/>
+      <c r="F59" s="3">
         <v>115</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="3">
         <v>119</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="3">
         <v>121</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="3">
         <v>130</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="3">
         <v>131</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="3">
         <v>150</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L59" s="3">
         <v>155</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="3">
         <v>172</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="3">
         <v>174</v>
       </c>
-      <c r="O59" s="9">
+      <c r="O59" s="3">
         <v>168</v>
       </c>
-      <c r="P59" s="9">
+      <c r="P59" s="3">
         <v>161</v>
       </c>
-      <c r="Q59" s="9">
+      <c r="Q59" s="3">
         <v>159</v>
       </c>
-      <c r="R59" s="21">
+      <c r="R59" s="10">
         <v>165</v>
       </c>
     </row>
@@ -1416,24 +1427,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:N5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A11:N13"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A35:N40"/>
+    <mergeCell ref="A28:N30"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="A48:N54"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A35:N40"/>
-    <mergeCell ref="A1:N5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A11:N13"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A28:N30"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
